--- a/spreadsheet/macrofree/azureapplicationgateway_sg_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/azureapplicationgateway_sg_checklist.pt.xlsx
@@ -1061,12 +1061,12 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Planejar atualizações de regras</t>
+          <t>Implante instâncias do Gateway de Aplicativo em uma configuração com reconhecimento de zona.  Verifique o suporte regional para redundância de zona porque nem todas as regiões oferecem esse recurso.</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Planeje tempo suficiente para atualizações antes de acessar o Gateway de Aplicativo ou fazer mais alterações. Por exemplo, a remoção de servidores do pool de back-end pode levar algum tempo porque eles precisam drenar as conexões existentes.</t>
+          <t>Quando você distribui várias instâncias entre zonas, sua carga de trabalho pode suportar falhas em uma única zona. Se você tiver uma zona indisponível, o tráfego mudará automaticamente para instâncias íntegras em outras zonas, o que mantém a confiabilidade do aplicativo.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1082,7 +1082,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>9a17eb2b-c5e3-428b-9e45-73dead45c4f9</t>
+          <t>a36e2517-aa81-4e4b-9962-e78144b18ac7</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Usar investigações de integridade para detectar indisponibilidade de back-end</t>
+          <t>Use investigações de integridade do Gateway de Aplicativo para detectar a indisponibilidade de back-end.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Se o Gateway de Aplicativo for usado para balancear a carga do tráfego de entrada em várias instâncias de back-end, recomendamos o uso de investigações de integridade. Isso garantirá que o tráfego não seja roteado para back-ends que não conseguem lidar com o tráfego.</t>
+          <t>As investigações de integridade garantem que o tráfego seja roteado apenas para back-ends que possam lidar com o tráfego. O Gateway de Aplicativo monitora a integridade de todos os servidores em seu pool de back-end e interrompe automaticamente o envio de tráfego para qualquer servidor que considere não íntegro.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1116,7 +1116,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>5bfa95df-20d8-4452-a6c1-79c88b07d4cc</t>
+          <t>9afcdcea-4d65-4d51-9008-297c2c363625</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Examinar o impacto das configurações de intervalo e limite nas investigações de integridade</t>
+          <t>Configure regras de limitação de taxa para o WAF do Azure para que os clientes não possam enviar muito tráfego para seu aplicativo.</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>A investigação de integridade envia solicitações para o ponto de extremidade configurado em um intervalo definido. Além disso, há um limite de solicitações com falha que serão toleradas antes que o back-end seja marcado como não íntegro. Esses números apresentam uma compensação.- Definir um intervalo maior coloca uma carga maior em seu serviço. Cada instância do Gateway de Aplicativo envia suas próprias investigações de integridade, portanto, 100 instâncias a cada 30 segundos significam 100 solicitações a cada 30 segundos.- Definir um intervalo menor deixa mais tempo antes que uma interrupção seja detectada.- Definir um limite baixo e não íntegro pode significar que falhas curtas e transitórias podem derrubar um back-end. - Definir um limite alto, pode levar mais tempo para tirar um back-end da rotação.</t>
+          <t>Use a limitação de taxa para evitar problemas como tempestades de repetição.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1150,7 +1150,7 @@
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>ec5bc6c4-6176-44a2-860e-8654f588effd</t>
+          <t>7bcec0ab-ea83-427d-ae8c-946bf662ece6</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Verificar dependências downstream por meio de pontos de extremidade de integridade</t>
+          <t>Não use UDRs no Gateway de Aplicativo para que o relatório de integridade de back-end funcione corretamente e gere os logs e as métricas corretos.  Se você precisar usar uma UDR na sub-rede do Gateway de Aplicativo, consulte UDRs com suporte.</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Suponha que cada back-end tenha suas próprias dependências para garantir que as falhas sejam isoladas. Por exemplo, um aplicativo hospedado por trás do Gateway de Aplicativo pode ter vários back-ends, cada um conectado a um banco de dados diferente (réplica). Quando essa dependência falha, o aplicativo pode estar funcionando, mas não retornará resultados válidos. Por esse motivo, o ponto de extremidade de integridade deve validar idealmente todas as dependências. Lembre-se de que, se cada chamada para o ponto de extremidade de integridade tiver uma chamada de dependência direta, esse banco de dados receberá 100 consultas a cada 30 segundos em vez de 1. Para evitar isso, o ponto de extremidade de integridade deve armazenar em cache o estado das dependências por um curto período de tempo.</t>
+          <t>UDRs na sub-rede do Gateway de Aplicativo podem causar alguns problemas. Não use UDRs na sub-rede do Gateway de Aplicativo para que você possa exibir a integridade, os logs e as métricas de back-end.</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>78bc5274-ca88-4e2a-8d3a-7b6a5ed1ccd6</t>
+          <t>b2881b32-11c9-4bec-94d0-255ec577fdab</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo para proteger aplicativos 'HTTP/S', use políticas de WAF no Front Door e bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
+          <t>Defina as configurações de IdleTimeout para corresponder às características de ouvinte e tráfego do aplicativo de back-end. O valor padrão é quatro minutos. Você pode configurá-lo para um máximo de 30 minutos.  Para obter mais informações, consulte Redefinição do protocolo TCP (Protocolo de Controle de Transmissão) do balanceador de carga e tempo limite ocioso.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Determinados cenários podem forçá-lo a implementar regras especificamente no Gateway de Aplicativo. Por exemplo, se as regras ModSec CRS 2.2.9, CRS 3.0 ou CRS 3.1 forem necessárias, essas regras só poderão ser implementadas no Gateway de Aplicativo. Por outro lado, a limitação de taxa e a filtragem geográfica estão disponíveis apenas no Azure Front Door, não no AppGateway.</t>
+          <t>Defina o IdleTimeout para corresponder ao back-end. Essa configuração garante que a conexão entre o Gateway de Aplicativo e o cliente permaneça aberta se o back-end levar mais de quatro minutos para responder à solicitação. Se você não definir essa configuração, a conexão será fechada e o cliente não verá a resposta de back-end.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1218,7 +1218,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>da7234f3-70a7-47d2-b685-3e47843003e9</t>
+          <t>0719fb38-2436-415b-8db7-3d19a1e57bee</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Configurar uma política TLS para segurança aprimorada</t>
+          <t>Configure uma política TLS para segurança aprimorada. Certifique-se de usar a versão mais recente da política TLS.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Configure uma política TLS para segurança extra. Verifique se você está sempre usando a versão mais recente da política TLS disponível. Isso impõe o TLS 1.2 e cifras mais fortes.</t>
+          <t>Use a política TLS mais recente para impor o uso do TLS 1.2 e cifras mais fortes. A política TLS inclui o controle da versão do protocolo TLS e dos conjuntos de criptografia, e também a ordem na qual um handshake TLS usa criptografias.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1252,7 +1252,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>9e5ba3b9-3512-425b-95e3-d5009e7630f3</t>
+          <t>8e0ffc7d-aecb-456f-8a8a-6cbd5743e076</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Usar o AppGateway para terminação TLS</t>
+          <t>Use o Gateway de Aplicativo para terminação TLS.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Há vantagens de usar o Gateway de Aplicativo para terminação TLS:- O desempenho melhora porque as solicitações que vão para back-ends diferentes precisam ser autenticadas novamente em cada back-end.- Melhor utilização dos servidores de back-end porque eles não precisam executar o processamento TLS- Roteamento inteligente acessando o conteúdo da solicitação.- Gerenciamento de certificados mais fácil porque o certificado só precisa ser instalado no Gateway de Aplicativo.</t>
+          <t>O desempenho melhora porque as solicitações que vão para back-ends diferentes não precisam ser autenticadas novamente em cada back-end. O gateway pode acessar o conteúdo da solicitação e tomar decisões de roteamento inteligentes. Você só precisa instalar o certificado no Gateway de Aplicativo, o que simplifica o gerenciamento de certificados.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1286,7 +1286,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>5cbd84eb-56a7-4d18-9f50-de47d3b29a8f</t>
+          <t>0534341b-03de-4eb4-9fbb-47806be1958d</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Usar o Azure Key Vault para armazenar certificados TLS</t>
+          <t>Integre o Gateway de Aplicativo ao Key Vault para armazenar certificados TLS.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>O Gateway de Aplicativo pode ser integrado ao Key Vault. Isso fornece segurança mais forte, separação mais fácil de funções e responsabilidades, suporte para certificados gerenciados e um processo de renovação e rotação de certificados mais fácil.</t>
+          <t>Essa abordagem fornece segurança mais forte, separação mais fácil de funções e responsabilidades, suporte para certificados gerenciados e um processo mais fácil de renovação e rotação de certificados.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1320,7 +1320,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>c1e7b351-a459-49d1-b473-a1f663310205</t>
+          <t>14551ef6-ea58-410f-bb9b-08a0c10381a8</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Ao criptografar novamente o tráfego de back-end, verifique se o certificado do servidor de back-end contém as CAs (Autoridades de Certificação) raiz e intermediária</t>
+          <t>Cumpra todas as restrições de NSG para Gateway de Aplicativo.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Um certificado TLS do servidor back-end deve ser emitido por uma autoridade de certificação conhecida. Se o certificado não tiver sido emitido por uma autoridade de certificação confiável, o Gateway de Aplicativo verificará se o certificado foi emitido por uma autoridade de certificação confiável e assim por diante, até que um certificado de autoridade de certificação confiável seja encontrado. Só então uma conexão segura é estabelecida. Caso contrário, o Gateway de Aplicativo marcará o back-end como não íntegro.</t>
+          <t>A sub-rede do Gateway de Aplicativo dá suporte a NSGs, mas há algumas restrições. Por exemplo, alguma comunicação com determinados intervalos de portas é proibida. Certifique-se de entender as implicações dessas restrições.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1354,7 +1354,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>1f53df88-090e-4f67-8a41-866ea4938cb1</t>
+          <t>6febf0db-32d2-4e89-a3fd-debec3a426dd</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Usar um servidor DNS apropriado para recursos do pool de back-end</t>
+          <t>Pare as instâncias do Gateway de Aplicativo quando elas não estiverem em uso. Para obter mais informações, consulte Stop-AzApplicationGateway e Start-AzApplicationGateway.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Quando o pool de back-end contém um FQDN resolvível, a resolução DNS é baseada em uma zona DNS privada ou servidor DNS personalizado (se configurado na VNet) ou usa o DNS padrão fornecido pelo Azure.</t>
+          <t>Uma instância do Gateway de Aplicativo interrompida não incorre em custos. As instâncias do Gateway de Aplicativo que são executadas continuamente podem incorrer em custos desnecessários. Avalie os padrões de uso e interrompa instâncias quando você não precisar deles. Por exemplo, espere baixo uso após o horário comercial em ambientes de desenvolvimento/teste.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1388,7 +1388,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>0e1af02a-017b-4a41-a7e5-98b47d7b1fd7</t>
+          <t>147308ab-aa3c-4724-b314-5820ebe6a0ee</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Cumprir todas as restrições de NSG para Gateway de Aplicativo</t>
+          <t>Monitore as principais métricas do Gateway de Aplicativo do direcionador de custo, como: - Unidades de capacidade faturadas estimadas.  - Unidades fixas de capacidade faturável. - Unidades de capacidade atual.  Certifique-se de contabilizar os custos de largura de banda.</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Os NSGs têm suporte na sub-rede do Gateway de Aplicativo, mas há algumas restrições. Por exemplo, alguma comunicação com determinados intervalos de portas é proibida. Certifique-se de entender as implicações dessas restrições. Para obter detalhes, consulte Grupos de segurança de rede.</t>
+          <t>Use essas métricas para validar se a contagem de instâncias provisionadas corresponde à quantidade de tráfego de entrada e certifique-se de utilizar totalmente os recursos alocados.</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1422,7 +1422,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>75da1adb-f8a2-4ad5-879a-a8552d1c836a</t>
+          <t>1946aefd-0576-40b2-a8ed-58265dc9dcf0</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1435,12 +1435,12 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Abster-se de usar UDRs na sub-rede do gateway de aplicativo</t>
+          <t>Configure alertas para notificar sua equipe quando as métricas de capacidade, como uso da CPU e uso da unidade de computação, ultrapassarem os limites recomendados.  Para configurar um conjunto abrangente de alertas com base em métricas de capacidade, consulte Suporte de alto tráfego do Gateway de Aplicativo.</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>O uso de UDR (Rotas Definidas pelo Usuário) na sub-rede do Gateway de Aplicativo pode causar alguns problemas. O estado de integridade no back-end pode ser desconhecido. Os logs e métricas do Gateway de Aplicativo podem não ser gerados. Recomendamos que você não use UDRs na sub-rede do Gateway de Aplicativo para que possa exibir a integridade, os logs e as métricas de back-end. Se suas organizações precisarem usar a UDR na sub-rede do Gateway de Aplicativo, examine os cenários com suporte. Para obter mais informações, consulte Rotas definidas pelo usuário com suporte.</t>
+          <t>Defina alertas quando as métricas ultrapassarem os limites para que você saiba quando seu uso aumenta. Essa abordagem garante que você tenha tempo suficiente para implementar as alterações necessárias em sua carga de trabalho e evita degradação ou interrupções.</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1456,7 +1456,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>7776e1c9-a0a7-4fd5-8fe9-1b2b9c56cf31</t>
+          <t>aa1eacb3-ef9f-4e69-bc98-784ec67d1192</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Esteja ciente das alterações de capacidade do Gateway de Aplicativo ao habilitar o WAF</t>
+          <t>Configure alertas para notificar sua equipe sobre métricas que indicam problemas no Gateway de Aplicativo ou no back-end. Recomendamos que você avalie os seguintes alertas:- Contagem de hosts não íntegros- Status de resposta, como erros 4xx e 5xx - Status de resposta de back-end, como erros 4xx e 5xx - Tempo de resposta do último byte de back-end- Tempo total do Gateway de AplicativoPara obter mais informações, consulte Métricas para o Gateway de Aplicativo.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Quando o WAF está habilitado, cada solicitação deve ser armazenada em buffer pelo Gateway de Aplicativo até que chegue totalmente, verifica se a solicitação corresponde a qualquer violação de regra em seu conjunto de regras principal e, em seguida, encaminha o pacote para as instâncias de back-end. Quando há uploads de arquivos grandes (30 MB+ de tamanho), isso pode resultar em uma latência significativa. Como os requisitos de capacidade do Gateway de Aplicativo são diferentes com o WAF, não recomendamos habilitar o WAF no Gateway de Aplicativo sem teste e validação adequados.</t>
+          <t>Use alertas para ajudar a garantir que sua equipe possa responder aos problemas em tempo hábil e facilitar a solução de problemas.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>7c173790-6fac-43bc-b1b4-e787fdbb904f</t>
+          <t>91992f80-fca7-48ad-85bc-3bad00352475</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Familiarize-se com os preços do Gateway de Aplicativo</t>
+          <t>Habilite logs de diagnóstico no Gateway de Aplicativo e no WAF para coletar logs de firewall, logs de desempenho e logs de acesso.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Para obter informações sobre os preços do Gateway de Aplicativo, consulte Noções básicas sobre preços do Gateway de Aplicativo do Azure e do Firewall de Aplicativo Web. Você também pode aproveitar a calculadora de preços. Certifique-se de que as opções sejam dimensionadas adequadamente para atender à demanda de capacidade e fornecer o desempenho esperado sem desperdiçar recursos.</t>
+          <t>Use logs para ajudar a detectar, investigar e solucionar problemas com instâncias do Gateway de Aplicativo e sua carga de trabalho.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1524,7 +1524,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>13adc786-048a-4720-9aad-610419507199</t>
+          <t>59ddc80c-f93b-488b-814d-270a4ad7786d</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Revise recursos subutilizados</t>
+          <t>Use o Assistente para monitorar problemas de configuração do Key Vault. Defina um alerta para notificar sua equipe quando você receber a recomendação que declara Resolver problema do Azure Key Vault para o Gateway de Aplicativo.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Identifique e exclua instâncias do Gateway de Aplicativo com pools de back-end vazios para evitar custos desnecessários.</t>
+          <t>Use os alertas do Assistente para se manter atualizado e corrigir problemas imediatamente. Evite problemas relacionados ao plano de controle ou ao plano de dados.  O Gateway de Aplicativo verifica a versão renovada do certificado na instância vinculada do Key Vault a cada 4 horas. Se a versão do certificado estiver inacessível devido a uma configuração incorreta do Key Vault, ele registrará esse erro e enviará uma recomendação do Assistente correspondente.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1558,7 +1558,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>8d3979f9-bd25-4455-9e2f-2cc7e0deaf5e</t>
+          <t>88daf0df-5324-450c-ae59-e8d3f12f697a</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Interromper instâncias do Gateway de Aplicativo quando não estiverem em uso</t>
+          <t>Defina a contagem mínima de instâncias para um nível ideal com base na contagem de instâncias estimada, nas tendências reais de dimensionamento automático do Gateway de Aplicativo e nos padrões de aplicativo.  Verifique as unidades de computação atuais do mês passado. Essa métrica representa o uso da CPU do gateway. Para definir a contagem mínima de instâncias, divida o pico de uso por 10. Por exemplo, se a média atual de unidades de computação no último mês for 50, defina a contagem mínima de instâncias como cinco.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Você não é cobrado quando o Gateway de Aplicativo está no estado parado. A execução contínua de instâncias do Gateway de Aplicativo pode incorrer em custos irrelevantes. Avalie os padrões de uso e interrompa instâncias quando você não precisar deles. Por exemplo, espera-se que o uso após o horário comercial em ambientes de desenvolvimento/teste seja baixo. Consulte estes artigos para obter informações sobre como interromper e iniciar instâncias.- Stop-AzApplicationGateway- Start-AzApplicationGateway</t>
+          <t>Para o Gateway de Aplicativo v2, o dimensionamento automático leva aproximadamente seis a sete minutos antes que o conjunto extra de instâncias esteja pronto para atender ao tráfego. Durante esse tempo, se o Gateway de Aplicativo tiver picos curtos no tráfego, espere latência transitória ou perda de tráfego.</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>fc01794b-1808-4152-a82c-95b43b2a4c45</t>
+          <t>1c9a7b2a-0e95-4416-8af5-4d173c48870e</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1605,12 +1605,12 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Ter uma política de redução e expansão</t>
+          <t>Defina a contagem máxima de instâncias de dimensionamento automático como o máximo possível, que é de 125 instâncias. Verifique se a sub-rede dedicada do Gateway de Aplicativo tem endereços IP disponíveis suficientes para dar suporte ao conjunto aumentado de instâncias.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Uma política de expansão garante que haverá instâncias suficientes para lidar com o tráfego de entrada e picos. Além disso, tenha uma política de redução de escala que garanta que o número de instâncias seja reduzido quando a demanda cair. Considere a escolha do tamanho da instância. O tamanho pode afetar significativamente o custo. Algumas considerações são descritas em Estimar a contagem de instâncias do Gateway de Aplicativo. Para obter mais informações, consulte O que é o Gateway de Aplicativo do Azure v2?</t>
+          <t>O Gateway de Aplicativo pode escalar horizontalmente conforme necessário para lidar com o aumento do tráfego para seus aplicativos. Essa configuração não aumenta o custo porque você paga apenas pela capacidade consumida.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1626,7 +1626,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>4e5743d9-44ec-4a09-9c80-d77056109fc6</t>
+          <t>2b1242f0-cf07-48fa-8567-63a11efd6d13</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Analise as métricas de consumo em diferentes parâmetros</t>
+          <t>Dimensione adequadamente a sub-rede dedicada do Gateway de Aplicativo. É altamente recomendável uma sub-rede /24 para uma implantação do Gateway de Aplicativo v2.  Se você quiser implantar outros recursos do Gateway de Aplicativo na mesma sub-rede, considere os endereços IP extras necessários para a contagem máxima de instâncias.  Para obter mais considerações sobre como dimensionar a sub-rede, consulte Configuração de infraestrutura do Gateway de Aplicativo.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Você é cobrado com base em instâncias limitadas do Gateway de Aplicativo com base nas métricas rastreadas pelo Azure. Avalie as várias métricas e unidades de capacidade e determine os direcionadores de custo. Para obter mais informações, consulte Gerenciamento de Custos e Cobrança da Microsoft. As métricas a seguir são fundamentais para o Gateway de Aplicativo. Essas informações podem ser usadas para validar se a contagem de instâncias provisionadas corresponde à quantidade de tráfego de entrada.- Unidades de Capacidade Faturada Estimada- Unidades de Capacidade Faturáveis Fixas- Unidades de Capacidade AtuaisPara obter mais informações, consulte Métricas do Gateway de Aplicativo. Certifique-se de contabilizar os custos de largura de banda.</t>
+          <t>Use uma sub-rede /24 para fornecer suporte a todos os endereços IP necessários para a implantação do Gateway de Aplicativo v2.  O Gateway de Aplicativo usará um endereço IP privado para cada instância e outro endereço IP privado se você configurar um IP de front-end privado. O SKU Standard_v2 ou WAF_v2 pode dar suporte a até 125 instâncias. O Azure reserva cinco endereços IP em cada sub-rede para uso interno.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1660,7 +1660,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>30129a61-cd84-4085-9533-5d42f89372d9</t>
+          <t>bd29ba93-56b6-43cc-9546-8aace18d45e5</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1671,32 +1671,15 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="n"/>
       <c r="B26" s="21" t="n"/>
-      <c r="C26" s="21" t="inlineStr">
-        <is>
-          <t>Monitorar métricas de capacidade</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="inlineStr">
-        <is>
-          <t>Use essas métricas como indicadores de utilização da capacidade provisionada do Gateway de Aplicativo. É altamente recomendável configurar alertas sobre a capacidade. Para obter detalhes, consulte Suporte de alto tráfego do Gateway de Aplicativo.</t>
-        </is>
-      </c>
+      <c r="C26" s="21" t="n"/>
+      <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="n"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="n"/>
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
-      <c r="L26" s="25" t="inlineStr">
-        <is>
-          <t>57cc0c49-939f-46d9-864e-d7ce31733771</t>
-        </is>
-      </c>
+      <c r="L26" s="25" t="n"/>
       <c r="M26" s="25" t="n"/>
       <c r="N26" s="25" t="n"/>
       <c r="O26" s="25" t="n"/>
@@ -1705,31 +1688,14 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="n"/>
       <c r="B27" s="21" t="n"/>
-      <c r="C27" s="21" t="inlineStr">
-        <is>
-          <t>Solucionar problemas usando métricas</t>
-        </is>
-      </c>
-      <c r="D27" s="21" t="inlineStr">
-        <is>
-          <t>Há outras métricas que podem indicar problemas no Gateway de Aplicativo ou no back-end. Recomendamos avaliar os seguintes alertas:- Contagem de Hosts Não Íntegros- Status da Resposta (dimensão 4xx e 5xx)- Status da Resposta de Back-end (dimensão 4xx e 5xx)- Tempo de Resposta do Último Byte de Back-end- Tempo Total do Gateway de AplicativoPara obter mais informações, consulte Métricas do Gateway de Aplicativo.</t>
-        </is>
-      </c>
+      <c r="C27" s="21" t="n"/>
+      <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="n"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="n"/>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
-      <c r="L27" s="25" t="inlineStr">
-        <is>
-          <t>071e5241-c008-41a2-9e62-c056081158d2</t>
-        </is>
-      </c>
+      <c r="L27" s="25" t="n"/>
       <c r="M27" s="25" t="n"/>
       <c r="N27" s="25" t="n"/>
       <c r="O27" s="25" t="n"/>
@@ -1738,31 +1704,14 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="n"/>
       <c r="B28" s="21" t="n"/>
-      <c r="C28" s="21" t="inlineStr">
-        <is>
-          <t>Habilitar o diagnóstico no Gateway de Aplicativo e no WAF (Firewall de Aplicativo Web)</t>
-        </is>
-      </c>
-      <c r="D28" s="21" t="inlineStr">
-        <is>
-          <t>Os logs de diagnóstico permitem que você exiba logs de firewall, logs de desempenho e logs de acesso. Use esses logs para gerenciar e solucionar problemas com instâncias do Gateway de Aplicativo. Para obter mais informações, consulte Logs de diagnóstico e integridade de back-end para o Gateway de Aplicativo.</t>
-        </is>
-      </c>
+      <c r="C28" s="21" t="n"/>
+      <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="n"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="n"/>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
-      <c r="L28" s="25" t="inlineStr">
-        <is>
-          <t>7e160588-dc1c-48d5-9a56-4ddc6aeb8fc2</t>
-        </is>
-      </c>
+      <c r="L28" s="25" t="n"/>
       <c r="M28" s="25" t="n"/>
       <c r="N28" s="25" t="n"/>
       <c r="O28" s="25" t="n"/>
@@ -1771,31 +1720,14 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="n"/>
       <c r="B29" s="21" t="n"/>
-      <c r="C29" s="21" t="inlineStr">
-        <is>
-          <t>Usar o Azure Monitor Network Insights</t>
-        </is>
-      </c>
-      <c r="D29" s="21" t="inlineStr">
-        <is>
-          <t>O Azure Monitor Network Insights fornece uma visão abrangente da integridade e das métricas para recursos de rede, incluindo o Gateway de Aplicativo. Para obter detalhes adicionais e recursos com suporte para o Gateway de Aplicativo, consulte Insights de rede do Azure Monitor.</t>
-        </is>
-      </c>
+      <c r="C29" s="21" t="n"/>
+      <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="n"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
-      <c r="L29" s="25" t="inlineStr">
-        <is>
-          <t>260dc49f-05b9-4c43-9cda-afc5b1923c89</t>
-        </is>
-      </c>
+      <c r="L29" s="25" t="n"/>
       <c r="M29" s="25" t="n"/>
       <c r="N29" s="25" t="n"/>
       <c r="O29" s="25" t="n"/>
@@ -1804,31 +1736,14 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="n"/>
       <c r="B30" s="21" t="n"/>
-      <c r="C30" s="21" t="inlineStr">
-        <is>
-          <t>Corresponder as configurações de tempo limite com o aplicativo de back-end</t>
-        </is>
-      </c>
-      <c r="D30" s="21" t="inlineStr">
-        <is>
-          <t>Verifique se você configurou as configurações de IdleTimeout para corresponder às características do ouvinte e do tráfego do aplicativo de back-end. O valor padrão é definido como quatro minutos e pode ser configurado para um máximo de 30. Para obter mais informações, consulte Redefinição de TCP do Balanceador de Carga e Tempo Limite Ocioso.Para considerações sobre carga de trabalho, consulte Monitorando a integridade do aplicativo para confiabilidade.</t>
-        </is>
-      </c>
+      <c r="C30" s="21" t="n"/>
+      <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="n"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="n"/>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
-      <c r="L30" s="25" t="inlineStr">
-        <is>
-          <t>8c5e5e8f-44d7-4494-8819-c1d765838fec</t>
-        </is>
-      </c>
+      <c r="L30" s="25" t="n"/>
       <c r="M30" s="25" t="n"/>
       <c r="N30" s="25" t="n"/>
       <c r="O30" s="25" t="n"/>
@@ -1837,31 +1752,14 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="n"/>
       <c r="B31" s="21" t="n"/>
-      <c r="C31" s="21" t="inlineStr">
-        <is>
-          <t>Monitorar problemas de configuração do Key Vault usando o Assistente do Azure</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>O Gateway de Aplicativo verifica a versão renovada do certificado no Key Vault vinculado a cada intervalo de 4 horas. Se ele estiver inacessível devido a qualquer configuração incorreta do Key Vault, ele registrará esse erro e enviará uma recomendação do Assistente correspondente. Você deve configurar os alertas do Advisor para se manter atualizado e corrigir esses problemas imediatamente para evitar problemas relacionados ao plano de controle ou de dados. Para obter mais informações, consulte Investigando e resolvendo erros do cofre de chaves. Para definir um alerta para esse caso específico, use o Tipo de Recomendação como Resolver problema do Azure Key Vault para o Gateway de Aplicativo.</t>
-        </is>
-      </c>
+      <c r="C31" s="21" t="n"/>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="n"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="n"/>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
-      <c r="L31" s="25" t="inlineStr">
-        <is>
-          <t>4123369e-cbd7-472d-9879-e155476c2595</t>
-        </is>
-      </c>
+      <c r="L31" s="25" t="n"/>
       <c r="M31" s="25" t="n"/>
       <c r="N31" s="25" t="n"/>
       <c r="O31" s="25" t="n"/>
@@ -1870,32 +1768,15 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="n"/>
       <c r="B32" s="21" t="n"/>
-      <c r="C32" s="21" t="inlineStr">
-        <is>
-          <t>Considere as limitações da porta SNAT em seu design</t>
-        </is>
-      </c>
-      <c r="D32" s="21" t="inlineStr">
-        <is>
-          <t>As limitações de porta SNAT são importantes para conexões de back-end no Gateway de Aplicativo. Há fatores separados que afetam como o Gateway de Aplicativo atinge o limite de porta SNAT. Por exemplo, se o back-end for um endereço IP público, ele exigirá sua própria porta SNAT. Para evitar limitações de porta SNAT, você pode aumentar o número de instâncias por Gateway de Aplicativo, escalar horizontalmente os back-ends para ter mais endereços IP ou mover seus back-ends para a mesma rede virtual e usar endereços IP privados para os back-ends. As solicitações por segundo (RPS) no Gateway de Aplicativo serão afetadas se o limite de porta SNAT for atingido. Por exemplo, se um Gateway de Aplicativo atingir o limite de porta SNAT, ele não poderá abrir uma nova conexão com o back-end e a solicitação falhará.</t>
-        </is>
-      </c>
+      <c r="C32" s="21" t="n"/>
+      <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="n"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="n"/>
       <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
-      <c r="L32" s="25" t="inlineStr">
-        <is>
-          <t>d2713c48-1e6f-4ee8-b91c-8499e7146945</t>
-        </is>
-      </c>
+      <c r="L32" s="25" t="n"/>
       <c r="M32" s="25" t="n"/>
       <c r="N32" s="25" t="n"/>
       <c r="O32" s="25" t="n"/>
@@ -1904,32 +1785,15 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="n"/>
       <c r="B33" s="21" t="n"/>
-      <c r="C33" s="21" t="inlineStr">
-        <is>
-          <t>Definir a contagem mínima de instâncias</t>
-        </is>
-      </c>
-      <c r="D33" s="21" t="inlineStr">
-        <is>
-          <t>Para o SKU do Gateway de Aplicativo v2, o dimensionamento automático leva algum tempo (aproximadamente seis a sete minutos) antes que o conjunto adicional de instâncias esteja pronto para atender ao tráfego. Durante esse tempo, se houver picos curtos no tráfego, espere latência transitória ou perda de tráfego. Recomendamos que você defina sua contagem mínima de instâncias para um nível ideal. Depois de estimar a contagem média de instâncias e determinar as tendências de dimensionamento automático do Gateway de Aplicativo, defina a contagem mínima de instâncias com base nos padrões de aplicativo. Para obter informações, consulte Suporte de alto tráfego do Gateway de Aplicativo. Verifique as Unidades de Computação Atuais do último mês. Essa métrica representa a utilização da CPU do gateway. Para definir a contagem mínima de instâncias, divida o pico de uso por 10. Por exemplo, se a média de Unidades de Computação Atuais no mês passado for 50, defina a contagem mínima de instâncias como cinco.</t>
-        </is>
-      </c>
+      <c r="C33" s="21" t="n"/>
+      <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="n"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="n"/>
       <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
-      <c r="L33" s="25" t="inlineStr">
-        <is>
-          <t>8bba115b-e086-458e-beca-ae9d8144a1f6</t>
-        </is>
-      </c>
+      <c r="L33" s="25" t="n"/>
       <c r="M33" s="25" t="n"/>
       <c r="N33" s="25" t="n"/>
       <c r="O33" s="25" t="n"/>
@@ -1938,32 +1802,15 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="n"/>
       <c r="B34" s="21" t="n"/>
-      <c r="C34" s="21" t="inlineStr">
-        <is>
-          <t>Definir a contagem máxima de instâncias</t>
-        </is>
-      </c>
-      <c r="D34" s="21" t="inlineStr">
-        <is>
-          <t>Recomendamos 125 como a contagem máxima de instâncias de dimensionamento automático. Verifique se a sub-rede que tem o Gateway de Aplicativo tem endereços IP disponíveis suficientes para dar suporte ao conjunto de instâncias de expansão. Definir a contagem máxima de instâncias como 125 não tem implicações de custo porque você é cobrado apenas pela capacidade consumida.</t>
-        </is>
-      </c>
+      <c r="C34" s="21" t="n"/>
+      <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="n"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="n"/>
       <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
-      <c r="L34" s="25" t="inlineStr">
-        <is>
-          <t>1250aa80-2761-4138-9565-57735472779b</t>
-        </is>
-      </c>
+      <c r="L34" s="25" t="n"/>
       <c r="M34" s="25" t="n"/>
       <c r="N34" s="25" t="n"/>
       <c r="O34" s="25" t="n"/>
@@ -1972,32 +1819,15 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="n"/>
       <c r="B35" s="21" t="n"/>
-      <c r="C35" s="21" t="inlineStr">
-        <is>
-          <t>Definir o tamanho da sub-rede do Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="D35" s="21" t="inlineStr">
-        <is>
-          <t>O Gateway de Aplicativo precisa de uma sub-rede dedicada em uma rede virtual. A sub-rede pode ter várias instâncias do recurso de Gateway de Aplicativo implantado. Você também pode implantar outros recursos do Gateway de Aplicativo nessa sub-rede, SKU v1 ou v2. Aqui estão algumas considerações para definir o tamanho da sub-rede:- O Gateway de Aplicativo usa um endereço IP privado por instância e outro endereço IP privado se um IP de front-end privado estiver configurado.- O Azure reserva cinco endereços IP em cada sub-rede para uso interno.- O Gateway de Aplicativo (SKU Standard ou WAF) pode dar suporte a até 32 instâncias. Usando 32 endereços IP de instância + 1 IP de front-end privado + 5 Azure reservados, é recomendável um tamanho mínimo de sub-rede de /26. Como o SKU Standard_v2 ou WAF_v2 pode dar suporte a até 125 instâncias, usando o mesmo cálculo, é recomendável um tamanho de sub-rede de /24.- Se você quiser implantar recursos adicionais do Gateway de Aplicativo na mesma sub-rede, considere os endereços IP adicionais que serão necessários para a contagem máxima de instâncias para Standard e Standard v2.</t>
-        </is>
-      </c>
+      <c r="C35" s="21" t="n"/>
+      <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="n"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="n"/>
       <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
-      <c r="L35" s="25" t="inlineStr">
-        <is>
-          <t>dbf3ca82-d3a8-431e-a86e-65df49c72032</t>
-        </is>
-      </c>
+      <c r="L35" s="25" t="n"/>
       <c r="M35" s="25" t="n"/>
       <c r="N35" s="25" t="n"/>
       <c r="O35" s="25" t="n"/>
@@ -2006,32 +1836,15 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="n"/>
       <c r="B36" s="21" t="n"/>
-      <c r="C36" s="21" t="inlineStr">
-        <is>
-          <t>Aproveite os recursos para dimensionamento automático e benefícios de desempenho</t>
-        </is>
-      </c>
-      <c r="D36" s="21" t="inlineStr">
-        <is>
-          <t>O SKU v2 oferece dimensionamento automático para garantir que o Gateway de Aplicativo possa escalar verticalmente à medida que o tráfego aumenta. Quando comparada ao SKU v1, a v2 tem recursos que aprimoram o desempenho da carga de trabalho. Por exemplo, melhor desempenho de descarregamento de TLS, tempos de implantação e atualização mais rápidos, redundância de zona e muito mais. Para obter mais informações sobre recursos de dimensionamento automático, consulte Dimensionando o Gateway de Aplicativo v2 e o WAF v2. Se você estiver executando o SKU v1 Gateway de aplicativo, considere migrar para o SKU do gateway de aplicativo v2. Para obter mais informações, consulte Migrar o Gateway de Aplicativo do Azure e o Firewall de Aplicativo Web da v1 para a v2.</t>
-        </is>
-      </c>
+      <c r="C36" s="21" t="n"/>
+      <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="n"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="n"/>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
-      <c r="L36" s="25" t="inlineStr">
-        <is>
-          <t>dffdc8e9-9139-46c1-93df-638e00cb3657</t>
-        </is>
-      </c>
+      <c r="L36" s="25" t="n"/>
       <c r="M36" s="25" t="n"/>
       <c r="N36" s="25" t="n"/>
       <c r="O36" s="25" t="n"/>
@@ -6300,7 +6113,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F37" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
